--- a/results/celltype-expressed_inferential_stats.xlsx
+++ b/results/celltype-expressed_inferential_stats.xlsx
@@ -58,7 +58,7 @@
     <t>pig</t>
   </si>
   <si>
-    <t>avg_93species</t>
+    <t>avg_92species</t>
   </si>
 </sst>
 </file>
@@ -456,19 +456,19 @@
         <v>34.90824286679145</v>
       </c>
       <c r="D2">
-        <v>2.628883708254696e-08</v>
+        <v>2.628883708254696E-08</v>
       </c>
       <c r="E2">
         <v>39.85267294161544</v>
       </c>
       <c r="F2">
-        <v>4.64296307908266e-08</v>
+        <v>4.64296307908266E-08</v>
       </c>
       <c r="G2">
         <v>39644559</v>
       </c>
       <c r="H2">
-        <v>1.93954004472215e-05</v>
+        <v>1.93954004472215E-05</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,19 +482,19 @@
         <v>32.1090628192211</v>
       </c>
       <c r="D3">
-        <v>1.065627940977766e-07</v>
+        <v>1.065627940977766E-07</v>
       </c>
       <c r="E3">
         <v>34.74538657417863</v>
       </c>
       <c r="F3">
-        <v>5.239718972493297e-07</v>
+        <v>5.239718972493297E-07</v>
       </c>
       <c r="G3">
         <v>36267718</v>
       </c>
       <c r="H3">
-        <v>2.10557238135258e-05</v>
+        <v>2.10557238135258E-05</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -514,7 +514,7 @@
         <v>25.48417037852151</v>
       </c>
       <c r="F4">
-        <v>4.020086064528877e-05</v>
+        <v>4.020086064528877E-05</v>
       </c>
       <c r="G4">
         <v>31124125</v>
@@ -566,7 +566,7 @@
         <v>23.98121311452317</v>
       </c>
       <c r="F6">
-        <v>8.057033458175465e-05</v>
+        <v>8.057033458175465E-05</v>
       </c>
       <c r="G6">
         <v>28744843</v>
@@ -586,19 +586,19 @@
         <v>32.61627183539666</v>
       </c>
       <c r="D7">
-        <v>8.269258356653277e-08</v>
+        <v>8.269258356653277E-08</v>
       </c>
       <c r="E7">
         <v>35.6277726045962</v>
       </c>
       <c r="F7">
-        <v>3.45148501976497e-07</v>
+        <v>3.45148501976497E-07</v>
       </c>
       <c r="G7">
         <v>37378903</v>
       </c>
       <c r="H7">
-        <v>3.740684581766888e-05</v>
+        <v>3.740684581766888E-05</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,19 +612,19 @@
         <v>35.31643814832442</v>
       </c>
       <c r="D8">
-        <v>2.143546434573839e-08</v>
+        <v>2.143546434573839E-08</v>
       </c>
       <c r="E8">
         <v>38.07274877958096</v>
       </c>
       <c r="F8">
-        <v>1.082497208722261e-07</v>
+        <v>1.082497208722261E-07</v>
       </c>
       <c r="G8">
         <v>37044557</v>
       </c>
       <c r="H8">
-        <v>1.682966270713497e-05</v>
+        <v>1.682966270713497E-05</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,19 +638,19 @@
         <v>44.37941189000224</v>
       </c>
       <c r="D9">
-        <v>2.307454537031731e-10</v>
+        <v>2.307454537031731E-10</v>
       </c>
       <c r="E9">
         <v>49.39897234902976</v>
       </c>
       <c r="F9">
-        <v>4.820298009832574e-10</v>
+        <v>4.820298009832574E-10</v>
       </c>
       <c r="G9">
         <v>49906174.5</v>
       </c>
       <c r="H9">
-        <v>1.290332067139237e-06</v>
+        <v>1.290332067139237E-06</v>
       </c>
     </row>
   </sheetData>
